--- a/StructureDefinition-ExampleConsent.xlsx
+++ b/StructureDefinition-ExampleConsent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="332">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T16:12:23+00:00</t>
+    <t>2023-07-25T20:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -381,10 +381,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Indicates the state of the consent.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-state-codes|4.0.1</t>
+    <t>http://example.org/ValueSet/ExampleConsentStateVS</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -2598,11 +2595,9 @@
       <c r="X11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Y11" s="2"/>
+      <c r="Z11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>33</v>
@@ -2635,24 +2630,24 @@
         <v>56</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2675,13 +2670,13 @@
         <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2708,14 +2703,14 @@
         <v>33</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AA12" t="s" s="2">
         <v>33</v>
       </c>
@@ -2732,7 +2727,7 @@
         <v>33</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>44</v>
@@ -2761,10 +2756,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2787,13 +2782,13 @@
         <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2820,14 +2815,14 @@
         <v>33</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>33</v>
       </c>
@@ -2844,7 +2839,7 @@
         <v>33</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>44</v>
@@ -2859,24 +2854,24 @@
         <v>56</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2899,13 +2894,13 @@
         <v>33</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2956,7 +2951,7 @@
         <v>33</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>34</v>
@@ -2977,7 +2972,7 @@
         <v>33</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>33</v>
@@ -2985,10 +2980,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3017,7 +3012,7 @@
         <v>91</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>93</v>
@@ -3058,19 +3053,19 @@
         <v>33</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>34</v>
@@ -3091,7 +3086,7 @@
         <v>33</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>33</v>
@@ -3099,10 +3094,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3125,19 +3120,19 @@
         <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>33</v>
@@ -3186,7 +3181,7 @@
         <v>33</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>34</v>
@@ -3204,10 +3199,10 @@
         <v>33</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>33</v>
@@ -3215,10 +3210,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3241,19 +3236,19 @@
         <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>33</v>
@@ -3302,7 +3297,7 @@
         <v>33</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>34</v>
@@ -3320,10 +3315,10 @@
         <v>33</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>33</v>
@@ -3331,10 +3326,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3357,16 +3352,16 @@
         <v>45</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3416,7 +3411,7 @@
         <v>33</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>34</v>
@@ -3431,24 +3426,24 @@
         <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3471,16 +3466,16 @@
         <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3530,7 +3525,7 @@
         <v>33</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>34</v>
@@ -3545,28 +3540,28 @@
         <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3585,16 +3580,16 @@
         <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3644,7 +3639,7 @@
         <v>33</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>34</v>
@@ -3659,28 +3654,28 @@
         <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3699,13 +3694,13 @@
         <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3756,7 +3751,7 @@
         <v>33</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>34</v>
@@ -3771,7 +3766,7 @@
         <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>33</v>
@@ -3780,15 +3775,15 @@
         <v>33</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3811,16 +3806,16 @@
         <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3870,7 +3865,7 @@
         <v>33</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>34</v>
@@ -3888,7 +3883,7 @@
         <v>33</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>33</v>
@@ -3899,10 +3894,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3925,13 +3920,13 @@
         <v>33</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3982,7 +3977,7 @@
         <v>33</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>34</v>
@@ -4011,10 +4006,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4037,13 +4032,13 @@
         <v>33</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4094,7 +4089,7 @@
         <v>33</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>34</v>
@@ -4115,7 +4110,7 @@
         <v>33</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>33</v>
@@ -4123,10 +4118,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4155,7 +4150,7 @@
         <v>91</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>93</v>
@@ -4208,7 +4203,7 @@
         <v>33</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>34</v>
@@ -4229,7 +4224,7 @@
         <v>33</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>33</v>
@@ -4237,14 +4232,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4266,10 +4261,10 @@
         <v>90</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>93</v>
@@ -4324,7 +4319,7 @@
         <v>33</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>34</v>
@@ -4353,10 +4348,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4382,10 +4377,10 @@
         <v>58</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4436,7 +4431,7 @@
         <v>33</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>34</v>
@@ -4445,7 +4440,7 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>56</v>
@@ -4465,10 +4460,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4494,13 +4489,13 @@
         <v>58</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4550,7 +4545,7 @@
         <v>33</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
@@ -4559,7 +4554,7 @@
         <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>56</v>
@@ -4579,10 +4574,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4605,19 +4600,19 @@
         <v>45</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>33</v>
@@ -4642,14 +4637,14 @@
         <v>33</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>33</v>
       </c>
@@ -4666,7 +4661,7 @@
         <v>33</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
@@ -4675,7 +4670,7 @@
         <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>56</v>
@@ -4695,10 +4690,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4721,13 +4716,13 @@
         <v>45</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4778,7 +4773,7 @@
         <v>33</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>34</v>
@@ -4807,10 +4802,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4833,13 +4828,13 @@
         <v>33</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4890,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>34</v>
@@ -4911,7 +4906,7 @@
         <v>33</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>33</v>
@@ -4919,10 +4914,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4951,7 +4946,7 @@
         <v>91</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>93</v>
@@ -5004,7 +4999,7 @@
         <v>33</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
@@ -5025,7 +5020,7 @@
         <v>33</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>33</v>
@@ -5033,14 +5028,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5062,10 +5057,10 @@
         <v>90</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>93</v>
@@ -5120,7 +5115,7 @@
         <v>33</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>34</v>
@@ -5149,10 +5144,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5175,13 +5170,13 @@
         <v>45</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5232,7 +5227,7 @@
         <v>33</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>44</v>
@@ -5261,10 +5256,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5287,13 +5282,13 @@
         <v>33</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5344,7 +5339,7 @@
         <v>33</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>34</v>
@@ -5373,10 +5368,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5399,13 +5394,13 @@
         <v>33</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5456,7 +5451,7 @@
         <v>33</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>34</v>
@@ -5485,10 +5480,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5511,13 +5506,13 @@
         <v>45</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5568,7 +5563,7 @@
         <v>33</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>34</v>
@@ -5597,10 +5592,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5623,13 +5618,13 @@
         <v>33</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5680,7 +5675,7 @@
         <v>33</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>34</v>
@@ -5701,7 +5696,7 @@
         <v>33</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>33</v>
@@ -5709,10 +5704,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5741,7 +5736,7 @@
         <v>91</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>93</v>
@@ -5794,7 +5789,7 @@
         <v>33</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>34</v>
@@ -5815,7 +5810,7 @@
         <v>33</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>33</v>
@@ -5823,14 +5818,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5852,10 +5847,10 @@
         <v>90</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>93</v>
@@ -5910,7 +5905,7 @@
         <v>33</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>34</v>
@@ -5939,10 +5934,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5968,10 +5963,10 @@
         <v>64</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6001,11 +5996,11 @@
         <v>115</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>33</v>
       </c>
@@ -6022,7 +6017,7 @@
         <v>33</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>34</v>
@@ -6051,10 +6046,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6077,13 +6072,13 @@
         <v>45</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6134,7 +6129,7 @@
         <v>33</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>34</v>
@@ -6163,10 +6158,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6189,13 +6184,13 @@
         <v>33</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6203,7 +6198,7 @@
         <v>33</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>33</v>
@@ -6248,7 +6243,7 @@
         <v>33</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
@@ -6277,10 +6272,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6303,13 +6298,13 @@
         <v>33</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6360,7 +6355,7 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>
@@ -6381,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>33</v>
@@ -6389,10 +6384,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6421,7 +6416,7 @@
         <v>91</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>93</v>
@@ -6474,7 +6469,7 @@
         <v>33</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>34</v>
@@ -6495,7 +6490,7 @@
         <v>33</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>33</v>
@@ -6503,14 +6498,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6532,10 +6527,10 @@
         <v>90</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>93</v>
@@ -6590,7 +6585,7 @@
         <v>33</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>34</v>
@@ -6619,10 +6614,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6645,13 +6640,13 @@
         <v>33</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6678,14 +6673,14 @@
         <v>33</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>33</v>
       </c>
@@ -6702,7 +6697,7 @@
         <v>33</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>44</v>
@@ -6731,10 +6726,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6757,13 +6752,13 @@
         <v>33</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6814,7 +6809,7 @@
         <v>33</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>44</v>
@@ -6843,10 +6838,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6869,51 +6864,51 @@
         <v>45</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>33</v>
       </c>
       <c r="Q49" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X49" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="R49" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="X49" t="s" s="2">
+      <c r="Y49" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>33</v>
       </c>
@@ -6930,7 +6925,7 @@
         <v>33</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>34</v>
@@ -6959,10 +6954,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6985,16 +6980,16 @@
         <v>45</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7020,14 +7015,14 @@
         <v>33</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>33</v>
       </c>
@@ -7044,7 +7039,7 @@
         <v>33</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>34</v>
@@ -7073,10 +7068,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7099,16 +7094,16 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7134,14 +7129,14 @@
         <v>33</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>33</v>
       </c>
@@ -7158,7 +7153,7 @@
         <v>33</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>34</v>
@@ -7187,10 +7182,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7213,16 +7208,16 @@
         <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7248,14 +7243,14 @@
         <v>33</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>33</v>
       </c>
@@ -7272,7 +7267,7 @@
         <v>33</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>34</v>
@@ -7301,10 +7296,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7327,16 +7322,16 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7362,14 +7357,14 @@
         <v>33</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>33</v>
       </c>
@@ -7386,7 +7381,7 @@
         <v>33</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>34</v>
@@ -7415,10 +7410,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7441,16 +7436,16 @@
         <v>45</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7500,7 +7495,7 @@
         <v>33</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>34</v>
@@ -7529,10 +7524,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7555,13 +7550,13 @@
         <v>45</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7569,7 +7564,7 @@
         <v>33</v>
       </c>
       <c r="Q55" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>33</v>
@@ -7614,7 +7609,7 @@
         <v>33</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>34</v>
@@ -7635,7 +7630,7 @@
         <v>33</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>33</v>
@@ -7643,10 +7638,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7669,13 +7664,13 @@
         <v>33</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7726,7 +7721,7 @@
         <v>33</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>34</v>
@@ -7747,7 +7742,7 @@
         <v>33</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>33</v>
@@ -7755,10 +7750,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7787,7 +7782,7 @@
         <v>91</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>93</v>
@@ -7840,7 +7835,7 @@
         <v>33</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>34</v>
@@ -7861,7 +7856,7 @@
         <v>33</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>33</v>
@@ -7869,14 +7864,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7898,10 +7893,10 @@
         <v>90</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>93</v>
@@ -7956,7 +7951,7 @@
         <v>33</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>34</v>
@@ -7985,10 +7980,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8014,10 +8009,10 @@
         <v>64</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8047,11 +8042,11 @@
         <v>115</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>33</v>
       </c>
@@ -8068,7 +8063,7 @@
         <v>33</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>44</v>
@@ -8097,10 +8092,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8123,13 +8118,13 @@
         <v>45</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8180,7 +8175,7 @@
         <v>33</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>44</v>
@@ -8209,10 +8204,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8238,10 +8233,10 @@
         <v>36</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8292,7 +8287,7 @@
         <v>33</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>34</v>

--- a/StructureDefinition-ExampleConsent.xlsx
+++ b/StructureDefinition-ExampleConsent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T20:33:47+00:00</t>
+    <t>2023-07-25T20:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
